--- a/ESCALA_TORRE_V3.xlsx
+++ b/ESCALA_TORRE_V3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="56">
   <si>
     <t>DATA</t>
   </si>
@@ -116,52 +116,55 @@
     <t>00H_EXP</t>
   </si>
   <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>ALLAN</t>
+  </si>
+  <si>
+    <t>CLEITON</t>
+  </si>
+  <si>
     <t>MARCO</t>
   </si>
   <si>
-    <t>CLEITON</t>
+    <t>BRANCÃO</t>
   </si>
   <si>
     <t>TONINHO</t>
   </si>
   <si>
-    <t>BRANCÃO</t>
+    <t>00H_AUX</t>
+  </si>
+  <si>
+    <t>B.SELAYARAN</t>
+  </si>
+  <si>
+    <t>RICHER</t>
+  </si>
+  <si>
+    <t>B.HORNES</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>THAIS</t>
+  </si>
+  <si>
+    <t>06H_EXP</t>
   </si>
   <si>
     <t>RODRIGO</t>
   </si>
   <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>ALLAN</t>
-  </si>
-  <si>
-    <t>00H_AUX</t>
+    <t>06H_AUX</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
   </si>
   <si>
     <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>THAIS</t>
-  </si>
-  <si>
-    <t>B.HORNES</t>
-  </si>
-  <si>
-    <t>RICHER</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>B.SELAYARAN</t>
-  </si>
-  <si>
-    <t>06H_EXP</t>
-  </si>
-  <si>
-    <t>06H_AUX</t>
   </si>
   <si>
     <t>12H_EXP</t>
@@ -563,25 +566,25 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -592,25 +595,25 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -621,25 +624,25 @@
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -650,25 +653,25 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -676,28 +679,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -705,28 +708,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -734,28 +737,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -763,28 +766,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -792,28 +795,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -824,25 +827,25 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -850,28 +853,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -879,28 +882,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -908,28 +911,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -937,28 +940,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -966,28 +969,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -995,28 +998,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1027,25 +1030,25 @@
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1053,28 +1056,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1082,28 +1085,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1111,28 +1114,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1140,28 +1143,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1169,28 +1172,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1201,25 +1204,25 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1227,28 +1230,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1256,28 +1259,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1285,28 +1288,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1314,28 +1317,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1343,28 +1346,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1372,28 +1375,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1401,28 +1404,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1433,25 +1436,25 @@
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1459,28 +1462,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1498,63 +1501,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>108</v>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>108</v>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>108</v>
@@ -1586,15 +1589,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>102</v>
@@ -1602,9 +1605,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
         <v>102</v>
       </c>
     </row>

--- a/ESCALA_TORRE_V3.xlsx
+++ b/ESCALA_TORRE_V3.xlsx
@@ -116,39 +116,45 @@
     <t>00H_EXP</t>
   </si>
   <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>ALLAN</t>
+  </si>
+  <si>
+    <t>TONINHO</t>
+  </si>
+  <si>
+    <t>BRANCÃO</t>
+  </si>
+  <si>
     <t>EDUARDO</t>
   </si>
   <si>
-    <t>ALLAN</t>
-  </si>
-  <si>
     <t>CLEITON</t>
   </si>
   <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>BRANCÃO</t>
-  </si>
-  <si>
-    <t>TONINHO</t>
-  </si>
-  <si>
     <t>00H_AUX</t>
   </si>
   <si>
     <t>B.SELAYARAN</t>
   </si>
   <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
     <t>RICHER</t>
   </si>
   <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
     <t>B.HORNES</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
     <t>THAIS</t>
   </si>
   <si>
@@ -159,12 +165,6 @@
   </si>
   <si>
     <t>06H_AUX</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
   </si>
   <si>
     <t>12H_EXP</t>
@@ -569,10 +569,10 @@
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
@@ -598,22 +598,22 @@
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -627,22 +627,22 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -653,22 +653,22 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -682,25 +682,25 @@
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -708,28 +708,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -737,28 +737,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -766,28 +766,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -795,28 +795,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -824,28 +824,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -853,28 +853,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -882,28 +882,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -911,28 +911,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -940,28 +940,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -969,28 +969,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -998,28 +998,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1027,28 +1027,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1056,28 +1056,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1085,28 +1085,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1114,25 +1114,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -1143,28 +1143,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1175,25 +1175,25 @@
         <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1201,28 +1201,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1230,28 +1230,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1259,28 +1259,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1288,16 +1288,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
@@ -1306,10 +1306,10 @@
         <v>40</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1317,19 +1317,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>42</v>
@@ -1338,7 +1338,7 @@
         <v>36</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1346,28 +1346,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1375,28 +1375,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1404,28 +1404,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1433,28 +1433,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1462,28 +1462,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>108</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>108</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>108</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>108</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>108</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>108</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>108</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>102</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>102</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>102</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>102</v>
